--- a/Code/Results/Cases/Case_3_219/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_219/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.25665020889672</v>
+        <v>16.20463809168008</v>
       </c>
       <c r="C2">
-        <v>13.15680598028902</v>
+        <v>12.39663578697463</v>
       </c>
       <c r="D2">
-        <v>6.010807253218155</v>
+        <v>9.933165352441552</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>19.53483020768757</v>
+        <v>31.44008403682198</v>
       </c>
       <c r="G2">
-        <v>21.1077958014474</v>
+        <v>31.49775227646713</v>
       </c>
       <c r="H2">
-        <v>8.706456045758847</v>
+        <v>15.09079098713568</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.476050678553549</v>
+        <v>10.88435774613836</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.101826062097508</v>
+        <v>11.47108939899972</v>
       </c>
       <c r="M2">
-        <v>12.96745126139801</v>
+        <v>16.07780712514151</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.02262393129209</v>
+        <v>23.31350193068468</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.84167954771021</v>
+        <v>15.65986545921441</v>
       </c>
       <c r="C3">
-        <v>12.75747270076246</v>
+        <v>12.26094000174127</v>
       </c>
       <c r="D3">
-        <v>5.960866172643247</v>
+        <v>9.944289296897605</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19.56224047675561</v>
+        <v>31.57553455690758</v>
       </c>
       <c r="G3">
-        <v>21.00485615385244</v>
+        <v>31.65627782474158</v>
       </c>
       <c r="H3">
-        <v>8.809790327751434</v>
+        <v>15.15344406643017</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.553344960307926</v>
+        <v>10.91254921279299</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.981308626267708</v>
+        <v>11.46729675016428</v>
       </c>
       <c r="M3">
-        <v>12.33625810271471</v>
+        <v>15.94603786500474</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.1322690318726</v>
+        <v>23.42482096507096</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.92055311998168</v>
+        <v>15.3160916985288</v>
       </c>
       <c r="C4">
-        <v>12.50743971561901</v>
+        <v>12.17740242531245</v>
       </c>
       <c r="D4">
-        <v>5.932313544941926</v>
+        <v>9.952293000589563</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.60041354885497</v>
+        <v>31.6665004871389</v>
       </c>
       <c r="G4">
-        <v>20.97454640665138</v>
+        <v>31.76453091899514</v>
       </c>
       <c r="H4">
-        <v>8.879508812041671</v>
+        <v>15.19455817276572</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.602253367084003</v>
+        <v>10.93076212961629</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.908286671478105</v>
+        <v>11.46605790625599</v>
       </c>
       <c r="M4">
-        <v>11.93408344139156</v>
+        <v>15.86586190064791</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.21452348817751</v>
+        <v>23.49862279337472</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.53196210342848</v>
+        <v>15.17385940297495</v>
       </c>
       <c r="C5">
-        <v>12.40444909530311</v>
+        <v>12.14333265935346</v>
       </c>
       <c r="D5">
-        <v>5.921211439305988</v>
+        <v>9.955850172767185</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.62112156959837</v>
+        <v>31.70552641828007</v>
       </c>
       <c r="G5">
-        <v>20.97013600272453</v>
+        <v>31.81137646322028</v>
       </c>
       <c r="H5">
-        <v>8.909440133115471</v>
+        <v>15.21197774313494</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.622555035128642</v>
+        <v>10.93841184061089</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.878802498498517</v>
+        <v>11.46582840246679</v>
       </c>
       <c r="M5">
-        <v>11.76669218881281</v>
+        <v>15.833397839712</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.25162437614499</v>
+        <v>23.53006622898775</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.46663624170056</v>
+        <v>15.15011845008282</v>
       </c>
       <c r="C6">
-        <v>12.38728475076922</v>
+        <v>12.13767454993651</v>
       </c>
       <c r="D6">
-        <v>5.919400206345606</v>
+        <v>9.956458705806947</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.62486496737725</v>
+        <v>31.71212468405902</v>
       </c>
       <c r="G6">
-        <v>20.9698731331666</v>
+        <v>31.81931969701037</v>
       </c>
       <c r="H6">
-        <v>8.914500459714807</v>
+        <v>15.21491043349943</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.62594871458221</v>
+        <v>10.93969584760235</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.873923953057608</v>
+        <v>11.46580695923232</v>
       </c>
       <c r="M6">
-        <v>11.73869119380888</v>
+        <v>15.82802049623296</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.25799630139826</v>
+        <v>23.53536998214346</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.9153660774981</v>
+        <v>15.3141819087396</v>
       </c>
       <c r="C7">
-        <v>12.50605504055703</v>
+        <v>12.17694302329554</v>
       </c>
       <c r="D7">
-        <v>5.932161656165903</v>
+        <v>9.952339776351485</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.60067224926023</v>
+        <v>31.66701888838815</v>
       </c>
       <c r="G7">
-        <v>20.97445522854679</v>
+        <v>31.76515165306769</v>
       </c>
       <c r="H7">
-        <v>8.879906391798311</v>
+        <v>15.1947904054309</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.602525651307492</v>
+        <v>10.93086437304958</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.907887896649317</v>
+        <v>11.46605369462035</v>
       </c>
       <c r="M7">
-        <v>11.93183987039968</v>
+        <v>15.86542320350539</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.2150095673211</v>
+        <v>23.49904131211526</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.77958869390008</v>
+        <v>16.01883655855065</v>
       </c>
       <c r="C8">
-        <v>13.02018769065965</v>
+        <v>12.34991012219656</v>
       </c>
       <c r="D8">
-        <v>5.993151047008618</v>
+        <v>9.93675762390234</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>19.53972347218432</v>
+        <v>31.48516607388518</v>
       </c>
       <c r="G8">
-        <v>21.06528400890839</v>
+        <v>31.55013769050198</v>
       </c>
       <c r="H8">
-        <v>8.740749148015471</v>
+        <v>15.11184492659168</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.502404993868692</v>
+        <v>10.89389110122557</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.060085443935954</v>
+        <v>11.46955627988463</v>
       </c>
       <c r="M8">
-        <v>12.75294558939204</v>
+        <v>16.03223619251143</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.05722471098565</v>
+        <v>23.35075193710646</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.02320415264788</v>
+        <v>17.3194763281551</v>
       </c>
       <c r="C9">
-        <v>13.98537301943418</v>
+        <v>12.68614351645142</v>
       </c>
       <c r="D9">
-        <v>6.12936237677434</v>
+        <v>9.91549019356456</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>19.5989088134144</v>
+        <v>31.19062986125462</v>
       </c>
       <c r="G9">
-        <v>21.5176517438265</v>
+        <v>31.21572576800669</v>
       </c>
       <c r="H9">
-        <v>8.520340180902268</v>
+        <v>14.97016726665785</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.317255102701044</v>
+        <v>10.82852266787361</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.36510090351869</v>
+        <v>11.48501459573887</v>
       </c>
       <c r="M9">
-        <v>14.24092479401902</v>
+        <v>16.36406626646356</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.87426872009882</v>
+        <v>23.10331153104724</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.15945637382459</v>
+        <v>18.21666952688174</v>
       </c>
       <c r="C10">
-        <v>14.66283113762297</v>
+        <v>12.92977214879741</v>
       </c>
       <c r="D10">
-        <v>6.239331316349209</v>
+        <v>9.905496621868712</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>19.76363608565102</v>
+        <v>31.0123413529969</v>
       </c>
       <c r="G10">
-        <v>22.03275070411945</v>
+        <v>31.02400884879104</v>
       </c>
       <c r="H10">
-        <v>8.394447784151398</v>
+        <v>14.87885484323626</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.187586684452911</v>
+        <v>10.78480353915019</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.591647262269105</v>
+        <v>11.50152863457201</v>
       </c>
       <c r="M10">
-        <v>15.25311288339575</v>
+        <v>16.60926348695825</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.82813392415621</v>
+        <v>22.94808297781518</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.07868001500474</v>
+        <v>18.61059237752489</v>
       </c>
       <c r="C11">
-        <v>14.96320946133929</v>
+        <v>13.03953462231194</v>
       </c>
       <c r="D11">
-        <v>6.291446506263178</v>
+        <v>9.902165792417259</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>19.86735335636433</v>
+        <v>30.93956240468923</v>
       </c>
       <c r="G11">
-        <v>22.30931400428289</v>
+        <v>30.94867376623441</v>
       </c>
       <c r="H11">
-        <v>8.345973447900555</v>
+        <v>14.84008724372908</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.129872763304101</v>
+        <v>10.76584061342061</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.694933481792581</v>
+        <v>11.51014269620052</v>
       </c>
       <c r="M11">
-        <v>15.69504351748488</v>
+        <v>16.7208003187817</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.82876668750811</v>
+        <v>22.8832634788292</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.41928821396218</v>
+        <v>18.7576067784601</v>
       </c>
       <c r="C12">
-        <v>15.07576796756109</v>
+        <v>13.08091849990799</v>
       </c>
       <c r="D12">
-        <v>6.31147578474703</v>
+        <v>9.90107856010416</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>19.91095307460977</v>
+        <v>30.91320446505748</v>
       </c>
       <c r="G12">
-        <v>22.42027124599608</v>
+        <v>30.92186689653133</v>
       </c>
       <c r="H12">
-        <v>8.32896958069367</v>
+        <v>14.82580537679083</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.108192019700643</v>
+        <v>10.75879218837945</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.734054200793373</v>
+        <v>11.51356133964831</v>
       </c>
       <c r="M12">
-        <v>15.85967245617076</v>
+        <v>16.76300937428518</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.83231757058476</v>
+        <v>22.8595538502982</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.34626364543953</v>
+        <v>18.72604210227174</v>
       </c>
       <c r="C13">
-        <v>15.05158028402346</v>
+        <v>13.07201421365474</v>
       </c>
       <c r="D13">
-        <v>6.307149127700964</v>
+        <v>9.901304983984485</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.90136795273343</v>
+        <v>30.91882759241276</v>
       </c>
       <c r="G13">
-        <v>22.39609552648001</v>
+        <v>30.92756349998658</v>
       </c>
       <c r="H13">
-        <v>8.332570068746483</v>
+        <v>14.82886350302301</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.112853749683713</v>
+        <v>10.76030431288898</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.725628848968171</v>
+        <v>11.51281813355234</v>
       </c>
       <c r="M13">
-        <v>15.8243384252027</v>
+        <v>16.75392054822919</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.83140234602356</v>
+        <v>22.86462291173277</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.10685155285303</v>
+        <v>18.62273113386575</v>
       </c>
       <c r="C14">
-        <v>14.97249387847818</v>
+        <v>13.04294307757468</v>
       </c>
       <c r="D14">
-        <v>6.293088462827962</v>
+        <v>9.902072860353407</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.87085264901452</v>
+        <v>30.93736980755144</v>
       </c>
       <c r="G14">
-        <v>22.31831693688051</v>
+        <v>30.94643378814354</v>
       </c>
       <c r="H14">
-        <v>8.344546905461957</v>
+        <v>14.838904276941</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.128085634762866</v>
+        <v>10.76525808475443</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.698151931340141</v>
+        <v>11.5104208201006</v>
       </c>
       <c r="M14">
-        <v>15.70864244047195</v>
+        <v>16.72427358780161</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.82899130314623</v>
+        <v>22.88129610032214</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.95923270990307</v>
+        <v>18.55916637593266</v>
       </c>
       <c r="C15">
-        <v>14.92389461682462</v>
+        <v>13.02511181669313</v>
       </c>
       <c r="D15">
-        <v>6.284514052507867</v>
+        <v>9.902565856417954</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.85272958117378</v>
+        <v>30.94888410518843</v>
       </c>
       <c r="G15">
-        <v>22.2714904208772</v>
+        <v>30.95821686697722</v>
       </c>
       <c r="H15">
-        <v>8.352061870321146</v>
+        <v>14.84510645225499</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.137438030833707</v>
+        <v>10.76830964052858</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.681321931111201</v>
+        <v>11.50897274841457</v>
       </c>
       <c r="M15">
-        <v>15.63741955619098</v>
+        <v>16.70610959098666</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.82795168165999</v>
+        <v>22.89161787991876</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.09833170819141</v>
+        <v>18.19062985465057</v>
       </c>
       <c r="C16">
-        <v>14.64303783108471</v>
+        <v>12.92257510034909</v>
       </c>
       <c r="D16">
-        <v>6.235966999544148</v>
+        <v>9.905738697280983</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.75745321366479</v>
+        <v>31.01726556047019</v>
       </c>
       <c r="G16">
-        <v>22.01554070439456</v>
+        <v>31.02917230032866</v>
       </c>
       <c r="H16">
-        <v>8.397800034346842</v>
+        <v>14.88144416508918</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.191383298609648</v>
+        <v>10.78606137468321</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.584899745306087</v>
+        <v>11.50098770787746</v>
       </c>
       <c r="M16">
-        <v>15.22385375299021</v>
+        <v>16.60197189914927</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.82854493665518</v>
+        <v>22.95243593159064</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.55678725303432</v>
+        <v>17.96082012037771</v>
       </c>
       <c r="C17">
-        <v>14.46869293299166</v>
+        <v>12.85937942468274</v>
       </c>
       <c r="D17">
-        <v>6.206715916534715</v>
+        <v>9.907995929691021</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>19.7065117602135</v>
+        <v>31.06135107977923</v>
       </c>
       <c r="G17">
-        <v>21.86946475403801</v>
+        <v>31.07575271285483</v>
       </c>
       <c r="H17">
-        <v>8.428172071935993</v>
+        <v>14.90444595163324</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.224796884283919</v>
+        <v>10.79718800062911</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.525788610734074</v>
+        <v>11.49637010958713</v>
       </c>
       <c r="M17">
-        <v>14.96535544747448</v>
+        <v>16.53806644427051</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.83459043454615</v>
+        <v>22.99123202346934</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.24035247955165</v>
+        <v>17.82730743095421</v>
       </c>
       <c r="C18">
-        <v>14.36768346283548</v>
+        <v>12.82293227064783</v>
       </c>
       <c r="D18">
-        <v>6.190088552346857</v>
+        <v>9.909408662635496</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.67991032480718</v>
+        <v>31.08749125758406</v>
       </c>
       <c r="G18">
-        <v>21.78941496896887</v>
+        <v>31.10366180498315</v>
       </c>
       <c r="H18">
-        <v>8.446463484444722</v>
+        <v>14.9179367699904</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.244135856227885</v>
+        <v>10.80367485476418</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.491812385800599</v>
+        <v>11.49381799946457</v>
       </c>
       <c r="M18">
-        <v>14.81493336901332</v>
+        <v>16.50131087952338</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.84009048752368</v>
+        <v>23.01409176883912</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.13236014332158</v>
+        <v>17.78187714462838</v>
       </c>
       <c r="C19">
-        <v>14.33336004443924</v>
+        <v>12.81057579516395</v>
       </c>
       <c r="D19">
-        <v>6.18449284474641</v>
+        <v>9.909906663616615</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>19.67136119912042</v>
+        <v>31.09647626918548</v>
       </c>
       <c r="G19">
-        <v>21.76298789353722</v>
+        <v>31.1133028349617</v>
       </c>
       <c r="H19">
-        <v>8.452795279364093</v>
+        <v>14.92254931808549</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.250704632298419</v>
+        <v>10.80588617252319</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.480313332007301</v>
+        <v>11.49297178026459</v>
       </c>
       <c r="M19">
-        <v>14.76370608317116</v>
+        <v>16.48886709822451</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.84229395624531</v>
+        <v>23.02192524849903</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.61494761908547</v>
+        <v>17.98542248879658</v>
       </c>
       <c r="C20">
-        <v>14.48732840229147</v>
+        <v>12.86611712653719</v>
       </c>
       <c r="D20">
-        <v>6.209809390349057</v>
+        <v>9.907743804892274</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>19.71165387349464</v>
+        <v>31.05657699246563</v>
       </c>
       <c r="G20">
-        <v>21.88460275137642</v>
+        <v>31.07067842003098</v>
       </c>
       <c r="H20">
-        <v>8.424853202827997</v>
+        <v>14.90197037955609</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.221227556299518</v>
+        <v>10.79599454083875</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.532078900745481</v>
+        <v>11.49685092923329</v>
       </c>
       <c r="M20">
-        <v>14.99305365430605</v>
+        <v>16.54486936393007</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.8337360553799</v>
+        <v>22.98704566044553</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.17737511542563</v>
+        <v>18.65313539495887</v>
       </c>
       <c r="C21">
-        <v>14.99575620402322</v>
+        <v>13.05148709779437</v>
       </c>
       <c r="D21">
-        <v>6.297210481066376</v>
+        <v>9.901842597557804</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19.87969695828043</v>
+        <v>30.93189085447451</v>
       </c>
       <c r="G21">
-        <v>22.34099230026068</v>
+        <v>30.940844323032</v>
       </c>
       <c r="H21">
-        <v>8.34099159090588</v>
+        <v>14.83594423970286</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.123607003485514</v>
+        <v>10.76379945276524</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.70622252492708</v>
+        <v>11.51112073104563</v>
       </c>
       <c r="M21">
-        <v>15.7426993761569</v>
+        <v>16.73298257859773</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.8296080111706</v>
+        <v>22.87637606633082</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.15493936868432</v>
+        <v>19.07691724822235</v>
       </c>
       <c r="C22">
-        <v>15.32109298863285</v>
+        <v>13.17157103777662</v>
       </c>
       <c r="D22">
-        <v>6.356045122083011</v>
+        <v>9.899000148651153</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>20.0148049219404</v>
+        <v>30.85740873715679</v>
       </c>
       <c r="G22">
-        <v>22.67562126750891</v>
+        <v>30.86602644393568</v>
       </c>
       <c r="H22">
-        <v>8.294110101389736</v>
+        <v>14.79511565492436</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.060817690054042</v>
+        <v>10.74352968800337</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.820074706492318</v>
+        <v>11.52135929199765</v>
       </c>
       <c r="M22">
-        <v>16.21676202614102</v>
+        <v>16.85575274013224</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.84630337489205</v>
+        <v>22.80892188740604</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.6371556714858</v>
+        <v>18.85192386688809</v>
       </c>
       <c r="C23">
-        <v>15.14811007818613</v>
+        <v>13.10758644787386</v>
       </c>
       <c r="D23">
-        <v>6.324489292416108</v>
+        <v>9.900424640159224</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>19.94032391464979</v>
+        <v>30.89651854850053</v>
       </c>
       <c r="G23">
-        <v>22.493655639047</v>
+        <v>30.90503574632679</v>
       </c>
       <c r="H23">
-        <v>8.31837592533066</v>
+        <v>14.81669400662406</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.094240004147405</v>
+        <v>10.75427764232009</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.759313700925251</v>
+        <v>11.51581188800195</v>
       </c>
       <c r="M23">
-        <v>15.9652135589237</v>
+        <v>16.79025260657011</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.83555179203944</v>
+        <v>22.84447647164496</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.58866918901708</v>
+        <v>17.9743040852383</v>
       </c>
       <c r="C24">
-        <v>14.47890571936255</v>
+        <v>12.86307136799791</v>
       </c>
       <c r="D24">
-        <v>6.208410240208255</v>
+        <v>9.907857432197975</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>19.7093207735985</v>
+        <v>31.05873288186586</v>
       </c>
       <c r="G24">
-        <v>21.87774663001556</v>
+        <v>31.07296899081492</v>
       </c>
       <c r="H24">
-        <v>8.426351084469776</v>
+        <v>14.90308875467539</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.222840846840754</v>
+        <v>10.79653382359097</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.529235035225165</v>
+        <v>11.4966332309288</v>
       </c>
       <c r="M24">
-        <v>14.98053692185292</v>
+        <v>16.54179381007721</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.83411602995491</v>
+        <v>22.98893658547605</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.1893923789437</v>
+        <v>16.97729299327645</v>
       </c>
       <c r="C25">
-        <v>13.72947224461403</v>
+        <v>12.59566644224938</v>
       </c>
       <c r="D25">
-        <v>6.090756627222397</v>
+        <v>9.920252215327114</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>19.56246672621702</v>
+        <v>31.26363634370494</v>
       </c>
       <c r="G25">
-        <v>21.36416997221116</v>
+        <v>31.29677040309819</v>
       </c>
       <c r="H25">
-        <v>8.573948360665227</v>
+        <v>15.00625015400289</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.36619160446594</v>
+        <v>10.84544709157884</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.2820468487328</v>
+        <v>11.47992105801872</v>
       </c>
       <c r="M25">
-        <v>13.85223195484641</v>
+        <v>16.27394441195466</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.9090823251865</v>
+        <v>23.1655953368332</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_219/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_219/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.20463809168008</v>
+        <v>21.25665020889672</v>
       </c>
       <c r="C2">
-        <v>12.39663578697463</v>
+        <v>13.15680598028885</v>
       </c>
       <c r="D2">
-        <v>9.933165352441552</v>
+        <v>6.010807253217928</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>31.44008403682198</v>
+        <v>19.53483020768767</v>
       </c>
       <c r="G2">
-        <v>31.49775227646713</v>
+        <v>21.10779580144737</v>
       </c>
       <c r="H2">
-        <v>15.09079098713568</v>
+        <v>8.706456045759021</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.88435774613836</v>
+        <v>6.476050678553584</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.47108939899972</v>
+        <v>7.101826062097502</v>
       </c>
       <c r="M2">
-        <v>16.07780712514151</v>
+        <v>12.96745126139802</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.31350193068468</v>
+        <v>14.02262393129224</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.65986545921441</v>
+        <v>19.84167954771017</v>
       </c>
       <c r="C3">
-        <v>12.26094000174127</v>
+        <v>12.75747270076236</v>
       </c>
       <c r="D3">
-        <v>9.944289296897605</v>
+        <v>5.960866172643147</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>31.57553455690758</v>
+        <v>19.56224047675578</v>
       </c>
       <c r="G3">
-        <v>31.65627782474158</v>
+        <v>21.00485615385264</v>
       </c>
       <c r="H3">
-        <v>15.15344406643017</v>
+        <v>8.809790327751552</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.91254921279299</v>
+        <v>6.553344960307926</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.46729675016428</v>
+        <v>6.981308626267762</v>
       </c>
       <c r="M3">
-        <v>15.94603786500474</v>
+        <v>12.33625810271474</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.42482096507096</v>
+        <v>14.13226903187273</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.3160916985288</v>
+        <v>18.92055311998168</v>
       </c>
       <c r="C4">
-        <v>12.17740242531245</v>
+        <v>12.50743971561911</v>
       </c>
       <c r="D4">
-        <v>9.952293000589563</v>
+        <v>5.932313544941987</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>31.6665004871389</v>
+        <v>19.60041354885495</v>
       </c>
       <c r="G4">
-        <v>31.76453091899514</v>
+        <v>20.97454640665135</v>
       </c>
       <c r="H4">
-        <v>15.19455817276572</v>
+        <v>8.879508812041658</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.93076212961629</v>
+        <v>6.602253367083903</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.46605790625599</v>
+        <v>6.908286671478139</v>
       </c>
       <c r="M4">
-        <v>15.86586190064791</v>
+        <v>11.93408344139159</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.49862279337472</v>
+        <v>14.21452348817743</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.17385940297495</v>
+        <v>18.53196210342844</v>
       </c>
       <c r="C5">
-        <v>12.14333265935346</v>
+        <v>12.40444909530313</v>
       </c>
       <c r="D5">
-        <v>9.955850172767185</v>
+        <v>5.921211439305993</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.70552641828007</v>
+        <v>19.62112156959835</v>
       </c>
       <c r="G5">
-        <v>31.81137646322028</v>
+        <v>20.97013600272453</v>
       </c>
       <c r="H5">
-        <v>15.21197774313494</v>
+        <v>8.909440133115464</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.93841184061089</v>
+        <v>6.622555035128543</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.46582840246679</v>
+        <v>6.878802498498462</v>
       </c>
       <c r="M5">
-        <v>15.833397839712</v>
+        <v>11.76669218881282</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.53006622898775</v>
+        <v>14.25162437614498</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.15011845008282</v>
+        <v>18.46663624170055</v>
       </c>
       <c r="C6">
-        <v>12.13767454993651</v>
+        <v>12.38728475076953</v>
       </c>
       <c r="D6">
-        <v>9.956458705806947</v>
+        <v>5.919400206345651</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.71212468405902</v>
+        <v>19.62486496737735</v>
       </c>
       <c r="G6">
-        <v>31.81931969701037</v>
+        <v>20.96987313316669</v>
       </c>
       <c r="H6">
-        <v>15.21491043349943</v>
+        <v>8.914500459714802</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.93969584760235</v>
+        <v>6.625948714582178</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.46580695923232</v>
+        <v>6.873923953057556</v>
       </c>
       <c r="M6">
-        <v>15.82802049623296</v>
+        <v>11.73869119380888</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.53536998214346</v>
+        <v>14.25799630139831</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.3141819087396</v>
+        <v>18.91536607749815</v>
       </c>
       <c r="C7">
-        <v>12.17694302329554</v>
+        <v>12.50605504055705</v>
       </c>
       <c r="D7">
-        <v>9.952339776351485</v>
+        <v>5.932161656165854</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>31.66701888838815</v>
+        <v>19.6006722492601</v>
       </c>
       <c r="G7">
-        <v>31.76515165306769</v>
+        <v>20.97445522854667</v>
       </c>
       <c r="H7">
-        <v>15.1947904054309</v>
+        <v>8.87990639179824</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.93086437304958</v>
+        <v>6.602525651307491</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.46605369462035</v>
+        <v>6.907887896649341</v>
       </c>
       <c r="M7">
-        <v>15.86542320350539</v>
+        <v>11.93183987039969</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.49904131211526</v>
+        <v>14.215009567321</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.01883655855065</v>
+        <v>20.77958869390002</v>
       </c>
       <c r="C8">
-        <v>12.34991012219656</v>
+        <v>13.02018769065965</v>
       </c>
       <c r="D8">
-        <v>9.93675762390234</v>
+        <v>5.993151047008465</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>31.48516607388518</v>
+        <v>19.53972347218431</v>
       </c>
       <c r="G8">
-        <v>31.55013769050198</v>
+        <v>21.06528400890846</v>
       </c>
       <c r="H8">
-        <v>15.11184492659168</v>
+        <v>8.7407491480154</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.89389110122557</v>
+        <v>6.502404993868758</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.46955627988463</v>
+        <v>7.060085443935979</v>
       </c>
       <c r="M8">
-        <v>16.03223619251143</v>
+        <v>12.75294558939208</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.35075193710646</v>
+        <v>14.05722471098569</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.3194763281551</v>
+        <v>24.02320415264788</v>
       </c>
       <c r="C9">
-        <v>12.68614351645142</v>
+        <v>13.98537301943401</v>
       </c>
       <c r="D9">
-        <v>9.91549019356456</v>
+        <v>6.129362376774282</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.19062986125462</v>
+        <v>19.59890881341441</v>
       </c>
       <c r="G9">
-        <v>31.21572576800669</v>
+        <v>21.51765174382659</v>
       </c>
       <c r="H9">
-        <v>14.97016726665785</v>
+        <v>8.520340180902277</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.82852266787361</v>
+        <v>6.31725510270104</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.48501459573887</v>
+        <v>7.36510090351869</v>
       </c>
       <c r="M9">
-        <v>16.36406626646356</v>
+        <v>14.24092479401902</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.10331153104724</v>
+        <v>13.87426872009886</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.21666952688174</v>
+        <v>26.15945637382458</v>
       </c>
       <c r="C10">
-        <v>12.92977214879741</v>
+        <v>14.6628311376231</v>
       </c>
       <c r="D10">
-        <v>9.905496621868712</v>
+        <v>6.239331316349304</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.0123413529969</v>
+        <v>19.76363608565103</v>
       </c>
       <c r="G10">
-        <v>31.02400884879104</v>
+        <v>22.03275070411937</v>
       </c>
       <c r="H10">
-        <v>14.87885484323626</v>
+        <v>8.394447784151398</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.78480353915019</v>
+        <v>6.187586684452978</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.50152863457201</v>
+        <v>7.591647262269147</v>
       </c>
       <c r="M10">
-        <v>16.60926348695825</v>
+        <v>15.25311288339577</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.94808297781518</v>
+        <v>13.82813392415618</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.61059237752489</v>
+        <v>27.07868001500481</v>
       </c>
       <c r="C11">
-        <v>13.03953462231194</v>
+        <v>14.96320946133905</v>
       </c>
       <c r="D11">
-        <v>9.902165792417259</v>
+        <v>6.291446506263176</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.93956240468923</v>
+        <v>19.86735335636425</v>
       </c>
       <c r="G11">
-        <v>30.94867376623441</v>
+        <v>22.30931400428276</v>
       </c>
       <c r="H11">
-        <v>14.84008724372908</v>
+        <v>8.345973447900509</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.76584061342061</v>
+        <v>6.129872763304067</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.51014269620052</v>
+        <v>7.694933481792663</v>
       </c>
       <c r="M11">
-        <v>16.7208003187817</v>
+        <v>15.69504351748489</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.8832634788292</v>
+        <v>13.82876668750801</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.7576067784601</v>
+        <v>27.41928821396223</v>
       </c>
       <c r="C12">
-        <v>13.08091849990799</v>
+        <v>15.0757679675611</v>
       </c>
       <c r="D12">
-        <v>9.90107856010416</v>
+        <v>6.31147578474701</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.91320446505748</v>
+        <v>19.9109530746095</v>
       </c>
       <c r="G12">
-        <v>30.92186689653133</v>
+        <v>22.42027124599584</v>
       </c>
       <c r="H12">
-        <v>14.82580537679083</v>
+        <v>8.32896958069351</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.75879218837945</v>
+        <v>6.108192019700575</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.51356133964831</v>
+        <v>7.734054200793317</v>
       </c>
       <c r="M12">
-        <v>16.76300937428518</v>
+        <v>15.85967245617072</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.8595538502982</v>
+        <v>13.83231757058459</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.72604210227174</v>
+        <v>27.34626364543947</v>
       </c>
       <c r="C13">
-        <v>13.07201421365474</v>
+        <v>15.05158028402338</v>
       </c>
       <c r="D13">
-        <v>9.901304983984485</v>
+        <v>6.307149127700851</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.91882759241276</v>
+        <v>19.90136795273365</v>
       </c>
       <c r="G13">
-        <v>30.92756349998658</v>
+        <v>22.39609552648029</v>
       </c>
       <c r="H13">
-        <v>14.82886350302301</v>
+        <v>8.332570068746612</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.76030431288898</v>
+        <v>6.112853749683643</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.51281813355234</v>
+        <v>7.725628848968135</v>
       </c>
       <c r="M13">
-        <v>16.75392054822919</v>
+        <v>15.82433842520268</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.86462291173277</v>
+        <v>13.83140234602379</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.62273113386575</v>
+        <v>27.10685155285304</v>
       </c>
       <c r="C14">
-        <v>13.04294307757468</v>
+        <v>14.97249387847816</v>
       </c>
       <c r="D14">
-        <v>9.902072860353407</v>
+        <v>6.293088462827868</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30.93736980755144</v>
+        <v>19.87085264901449</v>
       </c>
       <c r="G14">
-        <v>30.94643378814354</v>
+        <v>22.31831693688051</v>
       </c>
       <c r="H14">
-        <v>14.838904276941</v>
+        <v>8.344546905461957</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.76525808475443</v>
+        <v>6.128085634762933</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.5104208201006</v>
+        <v>7.698151931340144</v>
       </c>
       <c r="M14">
-        <v>16.72427358780161</v>
+        <v>15.70864244047195</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.88129610032214</v>
+        <v>13.82899130314623</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.55916637593266</v>
+        <v>26.95923270990307</v>
       </c>
       <c r="C15">
-        <v>13.02511181669313</v>
+        <v>14.92389461682466</v>
       </c>
       <c r="D15">
-        <v>9.902565856417954</v>
+        <v>6.28451405250785</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30.94888410518843</v>
+        <v>19.85272958117372</v>
       </c>
       <c r="G15">
-        <v>30.95821686697722</v>
+        <v>22.27149042087711</v>
       </c>
       <c r="H15">
-        <v>14.84510645225499</v>
+        <v>8.352061870321089</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.76830964052858</v>
+        <v>6.13743803083364</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.50897274841457</v>
+        <v>7.681321931111153</v>
       </c>
       <c r="M15">
-        <v>16.70610959098666</v>
+        <v>15.63741955619097</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.89161787991876</v>
+        <v>13.82795168165995</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.19062985465057</v>
+        <v>26.09833170819138</v>
       </c>
       <c r="C16">
-        <v>12.92257510034909</v>
+        <v>14.64303783108475</v>
       </c>
       <c r="D16">
-        <v>9.905738697280983</v>
+        <v>6.235966999544142</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>31.01726556047019</v>
+        <v>19.75745321366477</v>
       </c>
       <c r="G16">
-        <v>31.02917230032866</v>
+        <v>22.01554070439452</v>
       </c>
       <c r="H16">
-        <v>14.88144416508918</v>
+        <v>8.397800034346842</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.78606137468321</v>
+        <v>6.191383298609648</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.50098770787746</v>
+        <v>7.584899745306087</v>
       </c>
       <c r="M16">
-        <v>16.60197189914927</v>
+        <v>15.22385375299021</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.95243593159064</v>
+        <v>13.82854493665517</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.96082012037771</v>
+        <v>25.55678725303432</v>
       </c>
       <c r="C17">
-        <v>12.85937942468274</v>
+        <v>14.4686929329918</v>
       </c>
       <c r="D17">
-        <v>9.907995929691021</v>
+        <v>6.206715916534558</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>31.06135107977923</v>
+        <v>19.70651176021331</v>
       </c>
       <c r="G17">
-        <v>31.07575271285483</v>
+        <v>21.86946475403786</v>
       </c>
       <c r="H17">
-        <v>14.90444595163324</v>
+        <v>8.428172071935986</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.79718800062911</v>
+        <v>6.224796884283887</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.49637010958713</v>
+        <v>7.52578861073401</v>
       </c>
       <c r="M17">
-        <v>16.53806644427051</v>
+        <v>14.96535544747448</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.99123202346934</v>
+        <v>13.83459043454607</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.82730743095421</v>
+        <v>25.24035247955164</v>
       </c>
       <c r="C18">
-        <v>12.82293227064783</v>
+        <v>14.36768346283533</v>
       </c>
       <c r="D18">
-        <v>9.909408662635496</v>
+        <v>6.190088552346795</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.08749125758406</v>
+        <v>19.67991032480725</v>
       </c>
       <c r="G18">
-        <v>31.10366180498315</v>
+        <v>21.7894149689691</v>
       </c>
       <c r="H18">
-        <v>14.9179367699904</v>
+        <v>8.446463484444722</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.80367485476418</v>
+        <v>6.244135856227853</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.49381799946457</v>
+        <v>7.491812385800584</v>
       </c>
       <c r="M18">
-        <v>16.50131087952338</v>
+        <v>14.81493336901329</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.01409176883912</v>
+        <v>13.84009048752379</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.78187714462838</v>
+        <v>25.13236014332158</v>
       </c>
       <c r="C19">
-        <v>12.81057579516395</v>
+        <v>14.33336004443903</v>
       </c>
       <c r="D19">
-        <v>9.909906663616615</v>
+        <v>6.184492844746313</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.09647626918548</v>
+        <v>19.67136119912043</v>
       </c>
       <c r="G19">
-        <v>31.1133028349617</v>
+        <v>21.76298789353741</v>
       </c>
       <c r="H19">
-        <v>14.92254931808549</v>
+        <v>8.452795279364052</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.80588617252319</v>
+        <v>6.250704632298485</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.49297178026459</v>
+        <v>7.480313332007348</v>
       </c>
       <c r="M19">
-        <v>16.48886709822451</v>
+        <v>14.76370608317117</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.02192524849903</v>
+        <v>13.84229395624537</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.98542248879658</v>
+        <v>25.61494761908551</v>
       </c>
       <c r="C20">
-        <v>12.86611712653719</v>
+        <v>14.48732840229135</v>
       </c>
       <c r="D20">
-        <v>9.907743804892274</v>
+        <v>6.209809390349101</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.05657699246563</v>
+        <v>19.71165387349444</v>
       </c>
       <c r="G20">
-        <v>31.07067842003098</v>
+        <v>21.88460275137619</v>
       </c>
       <c r="H20">
-        <v>14.90197037955609</v>
+        <v>8.424853202827938</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.79599454083875</v>
+        <v>6.221227556299551</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.49685092923329</v>
+        <v>7.532078900745501</v>
       </c>
       <c r="M20">
-        <v>16.54486936393007</v>
+        <v>14.99305365430606</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.98704566044553</v>
+        <v>13.83373605537977</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.65313539495887</v>
+        <v>27.17737511542561</v>
       </c>
       <c r="C21">
-        <v>13.05148709779437</v>
+        <v>14.99575620402319</v>
       </c>
       <c r="D21">
-        <v>9.901842597557804</v>
+        <v>6.297210481066243</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.93189085447451</v>
+        <v>19.87969695828039</v>
       </c>
       <c r="G21">
-        <v>30.940844323032</v>
+        <v>22.34099230026068</v>
       </c>
       <c r="H21">
-        <v>14.83594423970286</v>
+        <v>8.34099159090588</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.76379945276524</v>
+        <v>6.123607003485547</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.51112073104563</v>
+        <v>7.706222524927001</v>
       </c>
       <c r="M21">
-        <v>16.73298257859773</v>
+        <v>15.74269937615687</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.87637606633082</v>
+        <v>13.82960801117064</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.07691724822235</v>
+        <v>28.15493936868432</v>
       </c>
       <c r="C22">
-        <v>13.17157103777662</v>
+        <v>15.32109298863284</v>
       </c>
       <c r="D22">
-        <v>9.899000148651153</v>
+        <v>6.356045122082874</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.85740873715679</v>
+        <v>20.01480492194031</v>
       </c>
       <c r="G22">
-        <v>30.86602644393568</v>
+        <v>22.67562126750887</v>
       </c>
       <c r="H22">
-        <v>14.79511565492436</v>
+        <v>8.294110101389736</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.74352968800337</v>
+        <v>6.060817690054042</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.52135929199765</v>
+        <v>7.82007470649231</v>
       </c>
       <c r="M22">
-        <v>16.85575274013224</v>
+        <v>16.216762026141</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.80892188740604</v>
+        <v>13.84630337489198</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.85192386688809</v>
+        <v>27.63715567148588</v>
       </c>
       <c r="C23">
-        <v>13.10758644787386</v>
+        <v>15.14811007818611</v>
       </c>
       <c r="D23">
-        <v>9.900424640159224</v>
+        <v>6.324489292416175</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.89651854850053</v>
+        <v>19.94032391464962</v>
       </c>
       <c r="G23">
-        <v>30.90503574632679</v>
+        <v>22.49365563904677</v>
       </c>
       <c r="H23">
-        <v>14.81669400662406</v>
+        <v>8.318375925330558</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.75427764232009</v>
+        <v>6.094240004147373</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.51581188800195</v>
+        <v>7.75931370092529</v>
       </c>
       <c r="M23">
-        <v>16.79025260657011</v>
+        <v>15.96521355892369</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.84447647164496</v>
+        <v>13.83555179203926</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.9743040852383</v>
+        <v>25.58866918901713</v>
       </c>
       <c r="C24">
-        <v>12.86307136799791</v>
+        <v>14.4789057193625</v>
       </c>
       <c r="D24">
-        <v>9.907857432197975</v>
+        <v>6.20841024020807</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.05873288186586</v>
+        <v>19.70932077359828</v>
       </c>
       <c r="G24">
-        <v>31.07296899081492</v>
+        <v>21.87774663001539</v>
       </c>
       <c r="H24">
-        <v>14.90308875467539</v>
+        <v>8.426351084469719</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.79653382359097</v>
+        <v>6.222840846840889</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.4966332309288</v>
+        <v>7.52923503522519</v>
       </c>
       <c r="M24">
-        <v>16.54179381007721</v>
+        <v>14.98053692185291</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.98893658547605</v>
+        <v>13.83411602995479</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.97729299327645</v>
+        <v>23.18939237894372</v>
       </c>
       <c r="C25">
-        <v>12.59566644224938</v>
+        <v>13.72947224461396</v>
       </c>
       <c r="D25">
-        <v>9.920252215327114</v>
+        <v>6.090756627222249</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.26363634370494</v>
+        <v>19.56246672621691</v>
       </c>
       <c r="G25">
-        <v>31.29677040309819</v>
+        <v>21.36416997221103</v>
       </c>
       <c r="H25">
-        <v>15.00625015400289</v>
+        <v>8.573948360665232</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.84544709157884</v>
+        <v>6.366191604466008</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.47992105801872</v>
+        <v>7.282046848732795</v>
       </c>
       <c r="M25">
-        <v>16.27394441195466</v>
+        <v>13.85223195484641</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.1655953368332</v>
+        <v>13.90908232518641</v>
       </c>
     </row>
   </sheetData>
